--- a/biology/Histoire de la zoologie et de la botanique/Stoycho_Vassilev_Breskovski/Stoycho_Vassilev_Breskovski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stoycho_Vassilev_Breskovski/Stoycho_Vassilev_Breskovski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stoycho Vassilev Breskovski, né le 25 décembre 1934 à Granit, province de Stara Zagora, Bulgarie et mort le 15 janvier 2004 à Sofia, Bulgarie, est un paléontologue et taxinomiste bulgare.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'enseignants établis dans le petit village de Granit, son enfance dans un environnement rural a déterminé sa passion pour les animaux et nature. Il obtient son baccalauréat en 1953 et s'inscrit à la faculté de biologie, géologie et géographie de l'université de Sofia. Ses études et recherches sont l’ammonites du Barrémien, Crétacé inférieur.  De 1975 à 1995 le docteur Breskovski est conservateur des collections de fossiles avec la direction des sections paléontologique du musée national d’histoire naturelle à Sofia. De 2001 jusqu’à la fin de sa vie il est conservateur des collections de fossiles à l'université de Sofia.
-Un genre et deux espèces d'ammonites ont été nommées d'après lui : Breskovskiceras Vermeulen et Lazarin, 2007; Plesiospitidiscus breskovskii Cecca et al., 1998; Montanesiceras breskovskii Vašíček et al., 2013[1],[2],[3].
+Un genre et deux espèces d'ammonites ont été nommées d'après lui : Breskovskiceras Vermeulen et Lazarin, 2007; Plesiospitidiscus breskovskii Cecca et al., 1998; Montanesiceras breskovskii Vašíček et al., 2013.
 </t>
         </is>
       </c>
